--- a/TODO.xlsx
+++ b/TODO.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ryrab\Desktop\Ryan\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ryrab\Desktop\Ryan\Etudes\S5\cloud\laravel-tier\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8C25861C-3F15-4693-A949-072B8135400A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2F25CB9-93B1-4E76-8E30-91A34188D439}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{E4CD268D-3C6D-46DD-A075-3D4B794E010A}"/>
   </bookViews>
@@ -18,7 +18,7 @@
   </sheets>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="27" r:id="rId3"/>
+    <pivotCache cacheId="0" r:id="rId3"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -283,12 +283,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="10">
@@ -423,7 +429,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
@@ -433,23 +438,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="10">
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
     <dxf>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
@@ -563,13 +557,6 @@
     </dxf>
     <dxf>
       <border outline="0">
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
         <left style="thin">
           <color indexed="64"/>
         </left>
@@ -582,6 +569,25 @@
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
       </border>
     </dxf>
   </dxfs>
@@ -1132,7 +1138,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{E68B3E23-D215-4DE0-81AF-789C3FDC78CD}" name="Tableau croisé dynamique5" cacheId="27" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valeurs" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{E68B3E23-D215-4DE0-81AF-789C3FDC78CD}" name="Tableau croisé dynamique5" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valeurs" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:G72" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="6">
     <pivotField showAll="0">
@@ -1467,15 +1473,15 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{8FFFC39C-6ECC-48EF-96BA-349189D9DB40}" name="Tableau1" displayName="Tableau1" ref="A1:F55" totalsRowShown="0" headerRowDxfId="0" headerRowBorderDxfId="8" tableBorderDxfId="9" totalsRowBorderDxfId="7">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{8FFFC39C-6ECC-48EF-96BA-349189D9DB40}" name="Tableau1" displayName="Tableau1" ref="A1:F55" totalsRowShown="0" headerRowDxfId="9" headerRowBorderDxfId="8" tableBorderDxfId="7" totalsRowBorderDxfId="6">
   <autoFilter ref="A1:F55" xr:uid="{8FFFC39C-6ECC-48EF-96BA-349189D9DB40}"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{77C46521-18BA-4508-93F3-871C98C4923E}" name="Catégorie" dataDxfId="6"/>
-    <tableColumn id="2" xr3:uid="{232E1D3F-8C88-4E11-8185-DC70D0013BC5}" name="Tâches" dataDxfId="5"/>
-    <tableColumn id="3" xr3:uid="{D64991BF-E64E-456A-AB57-6E7CA3EC081F}" name="Git branche" dataDxfId="4"/>
-    <tableColumn id="4" xr3:uid="{785C0B9D-698B-4AE9-BA66-2A8E4FD59261}" name="Attribution" dataDxfId="3"/>
-    <tableColumn id="5" xr3:uid="{9C54D6DE-DB3C-487D-939D-1A82E50E156A}" name="Estimation" dataDxfId="2"/>
-    <tableColumn id="6" xr3:uid="{BE8DEBE4-2A95-46A2-9025-F29E50524203}" name="Remarque" dataDxfId="1"/>
+    <tableColumn id="1" xr3:uid="{77C46521-18BA-4508-93F3-871C98C4923E}" name="Catégorie" dataDxfId="5"/>
+    <tableColumn id="2" xr3:uid="{232E1D3F-8C88-4E11-8185-DC70D0013BC5}" name="Tâches" dataDxfId="4"/>
+    <tableColumn id="3" xr3:uid="{D64991BF-E64E-456A-AB57-6E7CA3EC081F}" name="Git branche" dataDxfId="3"/>
+    <tableColumn id="4" xr3:uid="{785C0B9D-698B-4AE9-BA66-2A8E4FD59261}" name="Attribution" dataDxfId="2"/>
+    <tableColumn id="5" xr3:uid="{9C54D6DE-DB3C-487D-939D-1A82E50E156A}" name="Estimation" dataDxfId="1"/>
+    <tableColumn id="6" xr3:uid="{BE8DEBE4-2A95-46A2-9025-F29E50524203}" name="Remarque" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1848,20 +1854,19 @@
       <c r="A5" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="B5" s="4"/>
-      <c r="C5" s="4">
+      <c r="C5">
         <v>20</v>
       </c>
-      <c r="D5" s="4">
+      <c r="D5">
         <v>25</v>
       </c>
-      <c r="E5" s="4">
+      <c r="E5">
         <v>25</v>
       </c>
-      <c r="F5" s="4">
+      <c r="F5">
         <v>20</v>
       </c>
-      <c r="G5" s="4">
+      <c r="G5">
         <v>90</v>
       </c>
     </row>
@@ -1869,14 +1874,10 @@
       <c r="A6" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="B6" s="4"/>
-      <c r="C6" s="4"/>
-      <c r="D6" s="4"/>
-      <c r="E6" s="4">
-        <v>10</v>
-      </c>
-      <c r="F6" s="4"/>
-      <c r="G6" s="4">
+      <c r="E6">
+        <v>10</v>
+      </c>
+      <c r="G6">
         <v>10</v>
       </c>
     </row>
@@ -1884,14 +1885,10 @@
       <c r="A7" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="B7" s="4"/>
-      <c r="C7" s="4"/>
-      <c r="D7" s="4"/>
-      <c r="E7" s="4"/>
-      <c r="F7" s="4">
-        <v>10</v>
-      </c>
-      <c r="G7" s="4">
+      <c r="F7">
+        <v>10</v>
+      </c>
+      <c r="G7">
         <v>10</v>
       </c>
     </row>
@@ -1899,14 +1896,10 @@
       <c r="A8" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="B8" s="4"/>
-      <c r="C8" s="4"/>
-      <c r="D8" s="4"/>
-      <c r="E8" s="4">
-        <v>10</v>
-      </c>
-      <c r="F8" s="4"/>
-      <c r="G8" s="4">
+      <c r="E8">
+        <v>10</v>
+      </c>
+      <c r="G8">
         <v>10</v>
       </c>
     </row>
@@ -1914,14 +1907,10 @@
       <c r="A9" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="B9" s="4"/>
-      <c r="C9" s="4">
-        <v>5</v>
-      </c>
-      <c r="D9" s="4"/>
-      <c r="E9" s="4"/>
-      <c r="F9" s="4"/>
-      <c r="G9" s="4">
+      <c r="C9">
+        <v>5</v>
+      </c>
+      <c r="G9">
         <v>5</v>
       </c>
     </row>
@@ -1929,14 +1918,10 @@
       <c r="A10" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B10" s="4"/>
-      <c r="C10" s="4"/>
-      <c r="D10" s="4">
-        <v>10</v>
-      </c>
-      <c r="E10" s="4"/>
-      <c r="F10" s="4"/>
-      <c r="G10" s="4">
+      <c r="D10">
+        <v>10</v>
+      </c>
+      <c r="G10">
         <v>10</v>
       </c>
     </row>
@@ -1944,14 +1929,10 @@
       <c r="A11" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="B11" s="4"/>
-      <c r="C11" s="4"/>
-      <c r="D11" s="4">
-        <v>10</v>
-      </c>
-      <c r="E11" s="4"/>
-      <c r="F11" s="4"/>
-      <c r="G11" s="4">
+      <c r="D11">
+        <v>10</v>
+      </c>
+      <c r="G11">
         <v>10</v>
       </c>
     </row>
@@ -1959,14 +1940,10 @@
       <c r="A12" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="B12" s="4"/>
-      <c r="C12" s="4"/>
-      <c r="D12" s="4"/>
-      <c r="E12" s="4"/>
-      <c r="F12" s="4">
-        <v>10</v>
-      </c>
-      <c r="G12" s="4">
+      <c r="F12">
+        <v>10</v>
+      </c>
+      <c r="G12">
         <v>10</v>
       </c>
     </row>
@@ -1974,14 +1951,10 @@
       <c r="A13" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="B13" s="4"/>
-      <c r="C13" s="4"/>
-      <c r="D13" s="4">
-        <v>5</v>
-      </c>
-      <c r="E13" s="4"/>
-      <c r="F13" s="4"/>
-      <c r="G13" s="4">
+      <c r="D13">
+        <v>5</v>
+      </c>
+      <c r="G13">
         <v>5</v>
       </c>
     </row>
@@ -1989,14 +1962,10 @@
       <c r="A14" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="B14" s="4"/>
-      <c r="C14" s="4">
-        <v>5</v>
-      </c>
-      <c r="D14" s="4"/>
-      <c r="E14" s="4"/>
-      <c r="F14" s="4"/>
-      <c r="G14" s="4">
+      <c r="C14">
+        <v>5</v>
+      </c>
+      <c r="G14">
         <v>5</v>
       </c>
     </row>
@@ -2004,14 +1973,10 @@
       <c r="A15" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="B15" s="4"/>
-      <c r="C15" s="4"/>
-      <c r="D15" s="4"/>
-      <c r="E15" s="4">
-        <v>5</v>
-      </c>
-      <c r="F15" s="4"/>
-      <c r="G15" s="4">
+      <c r="E15">
+        <v>5</v>
+      </c>
+      <c r="G15">
         <v>5</v>
       </c>
     </row>
@@ -2019,14 +1984,10 @@
       <c r="A16" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="B16" s="4"/>
-      <c r="C16" s="4">
-        <v>10</v>
-      </c>
-      <c r="D16" s="4"/>
-      <c r="E16" s="4"/>
-      <c r="F16" s="4"/>
-      <c r="G16" s="4">
+      <c r="C16">
+        <v>10</v>
+      </c>
+      <c r="G16">
         <v>10</v>
       </c>
     </row>
@@ -2034,20 +1995,19 @@
       <c r="A17" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="B17" s="4"/>
-      <c r="C17" s="4">
+      <c r="C17">
         <v>15</v>
       </c>
-      <c r="D17" s="4">
+      <c r="D17">
         <v>20</v>
       </c>
-      <c r="E17" s="4">
-        <v>5</v>
-      </c>
-      <c r="F17" s="4">
+      <c r="E17">
+        <v>5</v>
+      </c>
+      <c r="F17">
         <v>15</v>
       </c>
-      <c r="G17" s="4">
+      <c r="G17">
         <v>55</v>
       </c>
     </row>
@@ -2055,14 +2015,10 @@
       <c r="A18" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="B18" s="4"/>
-      <c r="C18" s="4"/>
-      <c r="D18" s="4">
-        <v>10</v>
-      </c>
-      <c r="E18" s="4"/>
-      <c r="F18" s="4"/>
-      <c r="G18" s="4">
+      <c r="D18">
+        <v>10</v>
+      </c>
+      <c r="G18">
         <v>10</v>
       </c>
     </row>
@@ -2070,14 +2026,10 @@
       <c r="A19" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="B19" s="4"/>
-      <c r="C19" s="4"/>
-      <c r="D19" s="4"/>
-      <c r="E19" s="4"/>
-      <c r="F19" s="4">
-        <v>10</v>
-      </c>
-      <c r="G19" s="4">
+      <c r="F19">
+        <v>10</v>
+      </c>
+      <c r="G19">
         <v>10</v>
       </c>
     </row>
@@ -2085,14 +2037,10 @@
       <c r="A20" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="B20" s="4"/>
-      <c r="C20" s="4"/>
-      <c r="D20" s="4">
-        <v>10</v>
-      </c>
-      <c r="E20" s="4"/>
-      <c r="F20" s="4"/>
-      <c r="G20" s="4">
+      <c r="D20">
+        <v>10</v>
+      </c>
+      <c r="G20">
         <v>10</v>
       </c>
     </row>
@@ -2100,14 +2048,10 @@
       <c r="A21" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="B21" s="4"/>
-      <c r="C21" s="4"/>
-      <c r="D21" s="4"/>
-      <c r="E21" s="4"/>
-      <c r="F21" s="4">
-        <v>5</v>
-      </c>
-      <c r="G21" s="4">
+      <c r="F21">
+        <v>5</v>
+      </c>
+      <c r="G21">
         <v>5</v>
       </c>
     </row>
@@ -2115,14 +2059,10 @@
       <c r="A22" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="B22" s="4"/>
-      <c r="C22" s="4">
-        <v>5</v>
-      </c>
-      <c r="D22" s="4"/>
-      <c r="E22" s="4"/>
-      <c r="F22" s="4"/>
-      <c r="G22" s="4">
+      <c r="C22">
+        <v>5</v>
+      </c>
+      <c r="G22">
         <v>5</v>
       </c>
     </row>
@@ -2130,14 +2070,10 @@
       <c r="A23" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="B23" s="4"/>
-      <c r="C23" s="4"/>
-      <c r="D23" s="4"/>
-      <c r="E23" s="4">
-        <v>5</v>
-      </c>
-      <c r="F23" s="4"/>
-      <c r="G23" s="4">
+      <c r="E23">
+        <v>5</v>
+      </c>
+      <c r="G23">
         <v>5</v>
       </c>
     </row>
@@ -2145,14 +2081,10 @@
       <c r="A24" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="B24" s="4"/>
-      <c r="C24" s="4">
-        <v>10</v>
-      </c>
-      <c r="D24" s="4"/>
-      <c r="E24" s="4"/>
-      <c r="F24" s="4"/>
-      <c r="G24" s="4">
+      <c r="C24">
+        <v>10</v>
+      </c>
+      <c r="G24">
         <v>10</v>
       </c>
     </row>
@@ -2160,20 +2092,19 @@
       <c r="A25" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B25" s="4">
-        <v>10</v>
-      </c>
-      <c r="C25" s="4">
-        <v>5</v>
-      </c>
-      <c r="D25" s="4">
-        <v>5</v>
-      </c>
-      <c r="E25" s="4">
-        <v>5</v>
-      </c>
-      <c r="F25" s="4"/>
-      <c r="G25" s="4">
+      <c r="B25">
+        <v>10</v>
+      </c>
+      <c r="C25">
+        <v>5</v>
+      </c>
+      <c r="D25">
+        <v>5</v>
+      </c>
+      <c r="E25">
+        <v>5</v>
+      </c>
+      <c r="G25">
         <v>25</v>
       </c>
     </row>
@@ -2181,14 +2112,10 @@
       <c r="A26" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B26" s="4">
-        <v>10</v>
-      </c>
-      <c r="C26" s="4"/>
-      <c r="D26" s="4"/>
-      <c r="E26" s="4"/>
-      <c r="F26" s="4"/>
-      <c r="G26" s="4">
+      <c r="B26">
+        <v>10</v>
+      </c>
+      <c r="G26">
         <v>10</v>
       </c>
     </row>
@@ -2196,14 +2123,10 @@
       <c r="A27" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="B27" s="4"/>
-      <c r="C27" s="4"/>
-      <c r="D27" s="4">
-        <v>5</v>
-      </c>
-      <c r="E27" s="4"/>
-      <c r="F27" s="4"/>
-      <c r="G27" s="4">
+      <c r="D27">
+        <v>5</v>
+      </c>
+      <c r="G27">
         <v>5</v>
       </c>
     </row>
@@ -2211,14 +2134,10 @@
       <c r="A28" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B28" s="4"/>
-      <c r="C28" s="4"/>
-      <c r="D28" s="4"/>
-      <c r="E28" s="4">
-        <v>5</v>
-      </c>
-      <c r="F28" s="4"/>
-      <c r="G28" s="4">
+      <c r="E28">
+        <v>5</v>
+      </c>
+      <c r="G28">
         <v>5</v>
       </c>
     </row>
@@ -2226,14 +2145,10 @@
       <c r="A29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B29" s="4"/>
-      <c r="C29" s="4">
-        <v>5</v>
-      </c>
-      <c r="D29" s="4"/>
-      <c r="E29" s="4"/>
-      <c r="F29" s="4"/>
-      <c r="G29" s="4">
+      <c r="C29">
+        <v>5</v>
+      </c>
+      <c r="G29">
         <v>5</v>
       </c>
     </row>
@@ -2241,18 +2156,16 @@
       <c r="A30" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="B30" s="4"/>
-      <c r="C30" s="4">
-        <v>5</v>
-      </c>
-      <c r="D30" s="4">
-        <v>10</v>
-      </c>
-      <c r="E30" s="4"/>
-      <c r="F30" s="4">
-        <v>10</v>
-      </c>
-      <c r="G30" s="4">
+      <c r="C30">
+        <v>5</v>
+      </c>
+      <c r="D30">
+        <v>10</v>
+      </c>
+      <c r="F30">
+        <v>10</v>
+      </c>
+      <c r="G30">
         <v>25</v>
       </c>
     </row>
@@ -2260,14 +2173,10 @@
       <c r="A31" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="B31" s="4"/>
-      <c r="C31" s="4"/>
-      <c r="D31" s="4"/>
-      <c r="E31" s="4"/>
-      <c r="F31" s="4">
-        <v>10</v>
-      </c>
-      <c r="G31" s="4">
+      <c r="F31">
+        <v>10</v>
+      </c>
+      <c r="G31">
         <v>10</v>
       </c>
     </row>
@@ -2275,14 +2184,10 @@
       <c r="A32" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="B32" s="4"/>
-      <c r="C32" s="4"/>
-      <c r="D32" s="4">
-        <v>10</v>
-      </c>
-      <c r="E32" s="4"/>
-      <c r="F32" s="4"/>
-      <c r="G32" s="4">
+      <c r="D32">
+        <v>10</v>
+      </c>
+      <c r="G32">
         <v>10</v>
       </c>
     </row>
@@ -2290,14 +2195,10 @@
       <c r="A33" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="B33" s="4"/>
-      <c r="C33" s="4">
-        <v>5</v>
-      </c>
-      <c r="D33" s="4"/>
-      <c r="E33" s="4"/>
-      <c r="F33" s="4"/>
-      <c r="G33" s="4">
+      <c r="C33">
+        <v>5</v>
+      </c>
+      <c r="G33">
         <v>5</v>
       </c>
     </row>
@@ -2305,20 +2206,19 @@
       <c r="A34" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="B34" s="4"/>
-      <c r="C34" s="4">
+      <c r="C34">
         <v>30</v>
       </c>
-      <c r="D34" s="4">
-        <v>10</v>
-      </c>
-      <c r="E34" s="4">
+      <c r="D34">
+        <v>10</v>
+      </c>
+      <c r="E34">
         <v>20</v>
       </c>
-      <c r="F34" s="4">
+      <c r="F34">
         <v>15</v>
       </c>
-      <c r="G34" s="4">
+      <c r="G34">
         <v>75</v>
       </c>
     </row>
@@ -2326,14 +2226,10 @@
       <c r="A35" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="B35" s="4"/>
-      <c r="C35" s="4"/>
-      <c r="D35" s="4">
-        <v>10</v>
-      </c>
-      <c r="E35" s="4"/>
-      <c r="F35" s="4"/>
-      <c r="G35" s="4">
+      <c r="D35">
+        <v>10</v>
+      </c>
+      <c r="G35">
         <v>10</v>
       </c>
     </row>
@@ -2341,14 +2237,10 @@
       <c r="A36" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="B36" s="4"/>
-      <c r="C36" s="4"/>
-      <c r="D36" s="4"/>
-      <c r="E36" s="4"/>
-      <c r="F36" s="4">
+      <c r="F36">
         <v>15</v>
       </c>
-      <c r="G36" s="4">
+      <c r="G36">
         <v>15</v>
       </c>
     </row>
@@ -2356,14 +2248,10 @@
       <c r="A37" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="B37" s="4"/>
-      <c r="C37" s="4"/>
-      <c r="D37" s="4"/>
-      <c r="E37" s="4">
+      <c r="E37">
         <v>20</v>
       </c>
-      <c r="F37" s="4"/>
-      <c r="G37" s="4">
+      <c r="G37">
         <v>20</v>
       </c>
     </row>
@@ -2371,14 +2259,10 @@
       <c r="A38" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="B38" s="4"/>
-      <c r="C38" s="4">
+      <c r="C38">
         <v>15</v>
       </c>
-      <c r="D38" s="4"/>
-      <c r="E38" s="4"/>
-      <c r="F38" s="4"/>
-      <c r="G38" s="4">
+      <c r="G38">
         <v>15</v>
       </c>
     </row>
@@ -2386,14 +2270,10 @@
       <c r="A39" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="B39" s="4"/>
-      <c r="C39" s="4">
+      <c r="C39">
         <v>15</v>
       </c>
-      <c r="D39" s="4"/>
-      <c r="E39" s="4"/>
-      <c r="F39" s="4"/>
-      <c r="G39" s="4">
+      <c r="G39">
         <v>15</v>
       </c>
     </row>
@@ -2401,18 +2281,16 @@
       <c r="A40" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="B40" s="4"/>
-      <c r="C40" s="4">
-        <v>10</v>
-      </c>
-      <c r="D40" s="4">
-        <v>10</v>
-      </c>
-      <c r="E40" s="4">
+      <c r="C40">
+        <v>10</v>
+      </c>
+      <c r="D40">
+        <v>10</v>
+      </c>
+      <c r="E40">
         <v>15</v>
       </c>
-      <c r="F40" s="4"/>
-      <c r="G40" s="4">
+      <c r="G40">
         <v>35</v>
       </c>
     </row>
@@ -2420,14 +2298,10 @@
       <c r="A41" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="B41" s="4"/>
-      <c r="C41" s="4"/>
-      <c r="D41" s="4">
-        <v>10</v>
-      </c>
-      <c r="E41" s="4"/>
-      <c r="F41" s="4"/>
-      <c r="G41" s="4">
+      <c r="D41">
+        <v>10</v>
+      </c>
+      <c r="G41">
         <v>10</v>
       </c>
     </row>
@@ -2435,14 +2309,10 @@
       <c r="A42" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="B42" s="4"/>
-      <c r="C42" s="4">
-        <v>10</v>
-      </c>
-      <c r="D42" s="4"/>
-      <c r="E42" s="4"/>
-      <c r="F42" s="4"/>
-      <c r="G42" s="4">
+      <c r="C42">
+        <v>10</v>
+      </c>
+      <c r="G42">
         <v>10</v>
       </c>
     </row>
@@ -2450,14 +2320,10 @@
       <c r="A43" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="B43" s="4"/>
-      <c r="C43" s="4"/>
-      <c r="D43" s="4"/>
-      <c r="E43" s="4">
+      <c r="E43">
         <v>15</v>
       </c>
-      <c r="F43" s="4"/>
-      <c r="G43" s="4">
+      <c r="G43">
         <v>15</v>
       </c>
     </row>
@@ -2465,18 +2331,16 @@
       <c r="A44" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B44" s="4"/>
-      <c r="C44" s="4">
-        <v>10</v>
-      </c>
-      <c r="D44" s="4">
-        <v>10</v>
-      </c>
-      <c r="E44" s="4">
-        <v>5</v>
-      </c>
-      <c r="F44" s="4"/>
-      <c r="G44" s="4">
+      <c r="C44">
+        <v>10</v>
+      </c>
+      <c r="D44">
+        <v>10</v>
+      </c>
+      <c r="E44">
+        <v>5</v>
+      </c>
+      <c r="G44">
         <v>25</v>
       </c>
     </row>
@@ -2484,14 +2348,10 @@
       <c r="A45" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="B45" s="4"/>
-      <c r="C45" s="4"/>
-      <c r="D45" s="4">
-        <v>10</v>
-      </c>
-      <c r="E45" s="4"/>
-      <c r="F45" s="4"/>
-      <c r="G45" s="4">
+      <c r="D45">
+        <v>10</v>
+      </c>
+      <c r="G45">
         <v>10</v>
       </c>
     </row>
@@ -2499,14 +2359,10 @@
       <c r="A46" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="B46" s="4"/>
-      <c r="C46" s="4">
-        <v>10</v>
-      </c>
-      <c r="D46" s="4"/>
-      <c r="E46" s="4"/>
-      <c r="F46" s="4"/>
-      <c r="G46" s="4">
+      <c r="C46">
+        <v>10</v>
+      </c>
+      <c r="G46">
         <v>10</v>
       </c>
     </row>
@@ -2514,14 +2370,10 @@
       <c r="A47" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="B47" s="4"/>
-      <c r="C47" s="4"/>
-      <c r="D47" s="4"/>
-      <c r="E47" s="4">
-        <v>5</v>
-      </c>
-      <c r="F47" s="4"/>
-      <c r="G47" s="4">
+      <c r="E47">
+        <v>5</v>
+      </c>
+      <c r="G47">
         <v>5</v>
       </c>
     </row>
@@ -2529,18 +2381,16 @@
       <c r="A48" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="B48" s="4"/>
-      <c r="C48" s="4">
+      <c r="C48">
         <v>20</v>
       </c>
-      <c r="D48" s="4">
+      <c r="D48">
         <v>15</v>
       </c>
-      <c r="E48" s="4"/>
-      <c r="F48" s="4">
+      <c r="F48">
         <v>15</v>
       </c>
-      <c r="G48" s="4">
+      <c r="G48">
         <v>50</v>
       </c>
     </row>
@@ -2548,14 +2398,10 @@
       <c r="A49" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="B49" s="4"/>
-      <c r="C49" s="4"/>
-      <c r="D49" s="4"/>
-      <c r="E49" s="4"/>
-      <c r="F49" s="4">
+      <c r="F49">
         <v>15</v>
       </c>
-      <c r="G49" s="4">
+      <c r="G49">
         <v>15</v>
       </c>
     </row>
@@ -2563,14 +2409,10 @@
       <c r="A50" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="B50" s="4"/>
-      <c r="C50" s="4"/>
-      <c r="D50" s="4">
+      <c r="D50">
         <v>15</v>
       </c>
-      <c r="E50" s="4"/>
-      <c r="F50" s="4"/>
-      <c r="G50" s="4">
+      <c r="G50">
         <v>15</v>
       </c>
     </row>
@@ -2578,14 +2420,10 @@
       <c r="A51" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="B51" s="4"/>
-      <c r="C51" s="4">
+      <c r="C51">
         <v>20</v>
       </c>
-      <c r="D51" s="4"/>
-      <c r="E51" s="4"/>
-      <c r="F51" s="4"/>
-      <c r="G51" s="4">
+      <c r="G51">
         <v>20</v>
       </c>
     </row>
@@ -2593,18 +2431,16 @@
       <c r="A52" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="B52" s="4"/>
-      <c r="C52" s="4">
-        <v>10</v>
-      </c>
-      <c r="D52" s="4">
+      <c r="C52">
+        <v>10</v>
+      </c>
+      <c r="D52">
         <v>15</v>
       </c>
-      <c r="E52" s="4">
-        <v>10</v>
-      </c>
-      <c r="F52" s="4"/>
-      <c r="G52" s="4">
+      <c r="E52">
+        <v>10</v>
+      </c>
+      <c r="G52">
         <v>35</v>
       </c>
     </row>
@@ -2612,14 +2448,10 @@
       <c r="A53" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="B53" s="4"/>
-      <c r="C53" s="4"/>
-      <c r="D53" s="4">
+      <c r="D53">
         <v>15</v>
       </c>
-      <c r="E53" s="4"/>
-      <c r="F53" s="4"/>
-      <c r="G53" s="4">
+      <c r="G53">
         <v>15</v>
       </c>
     </row>
@@ -2627,14 +2459,10 @@
       <c r="A54" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="B54" s="4"/>
-      <c r="C54" s="4">
-        <v>10</v>
-      </c>
-      <c r="D54" s="4"/>
-      <c r="E54" s="4"/>
-      <c r="F54" s="4"/>
-      <c r="G54" s="4">
+      <c r="C54">
+        <v>10</v>
+      </c>
+      <c r="G54">
         <v>10</v>
       </c>
     </row>
@@ -2642,14 +2470,10 @@
       <c r="A55" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="B55" s="4"/>
-      <c r="C55" s="4"/>
-      <c r="D55" s="4"/>
-      <c r="E55" s="4">
-        <v>10</v>
-      </c>
-      <c r="F55" s="4"/>
-      <c r="G55" s="4">
+      <c r="E55">
+        <v>10</v>
+      </c>
+      <c r="G55">
         <v>10</v>
       </c>
     </row>
@@ -2657,18 +2481,16 @@
       <c r="A56" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="B56" s="4"/>
-      <c r="C56" s="4">
+      <c r="C56">
         <v>15</v>
       </c>
-      <c r="D56" s="4">
-        <v>10</v>
-      </c>
-      <c r="E56" s="4"/>
-      <c r="F56" s="4">
-        <v>10</v>
-      </c>
-      <c r="G56" s="4">
+      <c r="D56">
+        <v>10</v>
+      </c>
+      <c r="F56">
+        <v>10</v>
+      </c>
+      <c r="G56">
         <v>35</v>
       </c>
     </row>
@@ -2676,14 +2498,10 @@
       <c r="A57" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="B57" s="4"/>
-      <c r="C57" s="4"/>
-      <c r="D57" s="4"/>
-      <c r="E57" s="4"/>
-      <c r="F57" s="4">
-        <v>10</v>
-      </c>
-      <c r="G57" s="4">
+      <c r="F57">
+        <v>10</v>
+      </c>
+      <c r="G57">
         <v>10</v>
       </c>
     </row>
@@ -2691,14 +2509,10 @@
       <c r="A58" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="B58" s="4"/>
-      <c r="C58" s="4"/>
-      <c r="D58" s="4">
-        <v>10</v>
-      </c>
-      <c r="E58" s="4"/>
-      <c r="F58" s="4"/>
-      <c r="G58" s="4">
+      <c r="D58">
+        <v>10</v>
+      </c>
+      <c r="G58">
         <v>10</v>
       </c>
     </row>
@@ -2706,14 +2520,10 @@
       <c r="A59" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="B59" s="4"/>
-      <c r="C59" s="4">
+      <c r="C59">
         <v>15</v>
       </c>
-      <c r="D59" s="4"/>
-      <c r="E59" s="4"/>
-      <c r="F59" s="4"/>
-      <c r="G59" s="4">
+      <c r="G59">
         <v>15</v>
       </c>
     </row>
@@ -2721,14 +2531,10 @@
       <c r="A60" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="B60" s="4"/>
-      <c r="C60" s="4"/>
-      <c r="D60" s="4"/>
-      <c r="E60" s="4">
+      <c r="E60">
         <v>20</v>
       </c>
-      <c r="F60" s="4"/>
-      <c r="G60" s="4">
+      <c r="G60">
         <v>20</v>
       </c>
     </row>
@@ -2736,14 +2542,10 @@
       <c r="A61" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="B61" s="4"/>
-      <c r="C61" s="4"/>
-      <c r="D61" s="4"/>
-      <c r="E61" s="4">
+      <c r="E61">
         <v>20</v>
       </c>
-      <c r="F61" s="4"/>
-      <c r="G61" s="4">
+      <c r="G61">
         <v>20</v>
       </c>
     </row>
@@ -2751,20 +2553,19 @@
       <c r="A62" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="B62" s="4"/>
-      <c r="C62" s="4">
-        <v>10</v>
-      </c>
-      <c r="D62" s="4">
-        <v>10</v>
-      </c>
-      <c r="E62" s="4">
-        <v>10</v>
-      </c>
-      <c r="F62" s="4">
+      <c r="C62">
+        <v>10</v>
+      </c>
+      <c r="D62">
+        <v>10</v>
+      </c>
+      <c r="E62">
+        <v>10</v>
+      </c>
+      <c r="F62">
         <v>20</v>
       </c>
-      <c r="G62" s="4">
+      <c r="G62">
         <v>50</v>
       </c>
     </row>
@@ -2772,14 +2573,10 @@
       <c r="A63" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="B63" s="4"/>
-      <c r="C63" s="4"/>
-      <c r="D63" s="4">
-        <v>5</v>
-      </c>
-      <c r="E63" s="4"/>
-      <c r="F63" s="4"/>
-      <c r="G63" s="4">
+      <c r="D63">
+        <v>5</v>
+      </c>
+      <c r="G63">
         <v>5</v>
       </c>
     </row>
@@ -2787,14 +2584,10 @@
       <c r="A64" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="B64" s="4"/>
-      <c r="C64" s="4"/>
-      <c r="D64" s="4">
-        <v>5</v>
-      </c>
-      <c r="E64" s="4"/>
-      <c r="F64" s="4"/>
-      <c r="G64" s="4">
+      <c r="D64">
+        <v>5</v>
+      </c>
+      <c r="G64">
         <v>5</v>
       </c>
     </row>
@@ -2802,14 +2595,10 @@
       <c r="A65" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="B65" s="4"/>
-      <c r="C65" s="4"/>
-      <c r="D65" s="4"/>
-      <c r="E65" s="4"/>
-      <c r="F65" s="4">
+      <c r="F65">
         <v>15</v>
       </c>
-      <c r="G65" s="4">
+      <c r="G65">
         <v>15</v>
       </c>
     </row>
@@ -2817,14 +2606,10 @@
       <c r="A66" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="B66" s="4"/>
-      <c r="C66" s="4"/>
-      <c r="D66" s="4"/>
-      <c r="E66" s="4"/>
-      <c r="F66" s="4">
-        <v>5</v>
-      </c>
-      <c r="G66" s="4">
+      <c r="F66">
+        <v>5</v>
+      </c>
+      <c r="G66">
         <v>5</v>
       </c>
     </row>
@@ -2832,14 +2617,10 @@
       <c r="A67" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="B67" s="4"/>
-      <c r="C67" s="4">
-        <v>5</v>
-      </c>
-      <c r="D67" s="4"/>
-      <c r="E67" s="4"/>
-      <c r="F67" s="4"/>
-      <c r="G67" s="4">
+      <c r="C67">
+        <v>5</v>
+      </c>
+      <c r="G67">
         <v>5</v>
       </c>
     </row>
@@ -2847,14 +2628,10 @@
       <c r="A68" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="B68" s="4"/>
-      <c r="C68" s="4">
-        <v>5</v>
-      </c>
-      <c r="D68" s="4"/>
-      <c r="E68" s="4"/>
-      <c r="F68" s="4"/>
-      <c r="G68" s="4">
+      <c r="C68">
+        <v>5</v>
+      </c>
+      <c r="G68">
         <v>5</v>
       </c>
     </row>
@@ -2862,14 +2639,10 @@
       <c r="A69" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="B69" s="4"/>
-      <c r="C69" s="4"/>
-      <c r="D69" s="4"/>
-      <c r="E69" s="4">
-        <v>10</v>
-      </c>
-      <c r="F69" s="4"/>
-      <c r="G69" s="4">
+      <c r="E69">
+        <v>10</v>
+      </c>
+      <c r="G69">
         <v>10</v>
       </c>
     </row>
@@ -2877,14 +2650,10 @@
       <c r="A70" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="B70" s="4"/>
-      <c r="C70" s="4"/>
-      <c r="D70" s="4"/>
-      <c r="E70" s="4"/>
-      <c r="F70" s="4">
+      <c r="F70">
         <v>3</v>
       </c>
-      <c r="G70" s="4">
+      <c r="G70">
         <v>3</v>
       </c>
     </row>
@@ -2892,14 +2661,10 @@
       <c r="A71" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B71" s="4"/>
-      <c r="C71" s="4"/>
-      <c r="D71" s="4"/>
-      <c r="E71" s="4"/>
-      <c r="F71" s="4">
+      <c r="F71">
         <v>3</v>
       </c>
-      <c r="G71" s="4">
+      <c r="G71">
         <v>3</v>
       </c>
     </row>
@@ -2907,22 +2672,22 @@
       <c r="A72" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="B72" s="4">
-        <v>10</v>
-      </c>
-      <c r="C72" s="4">
+      <c r="B72">
+        <v>10</v>
+      </c>
+      <c r="C72">
         <v>150</v>
       </c>
-      <c r="D72" s="4">
+      <c r="D72">
         <v>140</v>
       </c>
-      <c r="E72" s="4">
+      <c r="E72">
         <v>115</v>
       </c>
-      <c r="F72" s="4">
+      <c r="F72">
         <v>108</v>
       </c>
-      <c r="G72" s="4">
+      <c r="G72">
         <v>523</v>
       </c>
     </row>
@@ -2933,10 +2698,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E2F81527-6F2B-4E48-A3FE-A8C288690935}">
-  <dimension ref="A1:F55"/>
+  <dimension ref="A1:G55"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="G10" sqref="G10:G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2950,1029 +2715,1037 @@
     <col min="12" max="12" width="29.21875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A1" s="8" t="s">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="B1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="C1" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="9" t="s">
+      <c r="D1" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="9" t="s">
+      <c r="E1" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="10" t="s">
+      <c r="F1" s="9" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2" s="6" t="s">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C2" s="5"/>
-      <c r="D2" s="5" t="s">
+      <c r="C2" s="4"/>
+      <c r="D2" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="E2" s="5">
+      <c r="E2" s="4">
         <v>3</v>
       </c>
-      <c r="F2" s="7"/>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A3" s="6" t="s">
+      <c r="F2" s="6"/>
+      <c r="G2" s="13"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" s="5" t="s">
+      <c r="B3" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="D3" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="E3" s="5">
-        <v>10</v>
-      </c>
-      <c r="F3" s="7"/>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A4" s="6" t="s">
+      <c r="E3" s="4">
+        <v>10</v>
+      </c>
+      <c r="F3" s="6"/>
+      <c r="G3" s="13"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A4" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="C4" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D4" s="5" t="s">
+      <c r="D4" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="E4" s="5">
-        <v>5</v>
-      </c>
-      <c r="F4" s="7"/>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A5" s="6" t="s">
+      <c r="E4" s="4">
+        <v>5</v>
+      </c>
+      <c r="F4" s="6"/>
+      <c r="G4" s="13"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A5" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C5" s="5" t="s">
+      <c r="B5" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D5" s="5" t="s">
+      <c r="D5" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="E5" s="5">
-        <v>5</v>
-      </c>
-      <c r="F5" s="7"/>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A6" s="6" t="s">
+      <c r="E5" s="4">
+        <v>5</v>
+      </c>
+      <c r="F5" s="6"/>
+      <c r="G5" s="13"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A6" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="5" t="s">
+      <c r="B6" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="C6" s="5" t="s">
+      <c r="C6" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D6" s="5" t="s">
+      <c r="D6" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="E6" s="5">
-        <v>5</v>
-      </c>
-      <c r="F6" s="7"/>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A7" s="6" t="s">
+      <c r="E6" s="4">
+        <v>5</v>
+      </c>
+      <c r="F6" s="6"/>
+      <c r="G6" s="13"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A7" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="B7" s="5" t="s">
+      <c r="B7" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="C7" s="5" t="s">
+      <c r="C7" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="D7" s="5" t="s">
+      <c r="D7" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="E7" s="5">
-        <v>10</v>
-      </c>
-      <c r="F7" s="7" t="s">
+      <c r="E7" s="4">
+        <v>10</v>
+      </c>
+      <c r="F7" s="6" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A8" s="6" t="s">
+      <c r="G7" s="13"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A8" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="5" t="s">
+      <c r="B8" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="C8" s="5" t="s">
+      <c r="C8" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="D8" s="5" t="s">
+      <c r="D8" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="E8" s="5">
-        <v>5</v>
-      </c>
-      <c r="F8" s="7" t="s">
+      <c r="E8" s="4">
+        <v>5</v>
+      </c>
+      <c r="F8" s="6" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A9" s="6" t="s">
+      <c r="G8" s="13"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A9" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="B9" s="5" t="s">
+      <c r="B9" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="C9" s="5" t="s">
+      <c r="C9" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="D9" s="5" t="s">
+      <c r="D9" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="E9" s="5">
-        <v>10</v>
-      </c>
-      <c r="F9" s="7"/>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A10" s="6" t="s">
+      <c r="E9" s="4">
+        <v>10</v>
+      </c>
+      <c r="F9" s="6"/>
+      <c r="G9" s="13"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A10" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="B10" s="5" t="s">
+      <c r="B10" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="C10" s="5" t="s">
+      <c r="C10" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="D10" s="5" t="s">
+      <c r="D10" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="E10" s="5">
-        <v>10</v>
-      </c>
-      <c r="F10" s="7" t="s">
+      <c r="E10" s="4">
+        <v>10</v>
+      </c>
+      <c r="F10" s="6" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A11" s="6" t="s">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A11" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="B11" s="5" t="s">
+      <c r="B11" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="C11" s="5" t="s">
+      <c r="C11" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="D11" s="5" t="s">
+      <c r="D11" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="E11" s="5">
-        <v>5</v>
-      </c>
-      <c r="F11" s="7" t="s">
+      <c r="E11" s="4">
+        <v>5</v>
+      </c>
+      <c r="F11" s="6" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A12" s="6" t="s">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A12" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="B12" s="5" t="s">
+      <c r="B12" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="C12" s="5" t="s">
+      <c r="C12" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="D12" s="5" t="s">
+      <c r="D12" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="E12" s="5">
-        <v>10</v>
-      </c>
-      <c r="F12" s="7"/>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A13" s="6" t="s">
+      <c r="E12" s="4">
+        <v>10</v>
+      </c>
+      <c r="F12" s="6"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A13" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="B13" s="5" t="s">
+      <c r="B13" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="C13" s="5" t="s">
+      <c r="C13" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="D13" s="5" t="s">
+      <c r="D13" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="E13" s="5">
+      <c r="E13" s="4">
         <v>15</v>
       </c>
-      <c r="F13" s="7"/>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A14" s="6" t="s">
+      <c r="F13" s="6"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A14" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="B14" s="5" t="s">
+      <c r="B14" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="C14" s="5" t="s">
+      <c r="C14" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="D14" s="5" t="s">
+      <c r="D14" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="E14" s="5">
-        <v>10</v>
-      </c>
-      <c r="F14" s="7" t="s">
+      <c r="E14" s="4">
+        <v>10</v>
+      </c>
+      <c r="F14" s="6" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A15" s="6" t="s">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A15" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="B15" s="5" t="s">
+      <c r="B15" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="C15" s="5" t="s">
+      <c r="C15" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="D15" s="5" t="s">
+      <c r="D15" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="E15" s="5">
-        <v>10</v>
-      </c>
-      <c r="F15" s="7"/>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A16" s="6" t="s">
+      <c r="E15" s="4">
+        <v>10</v>
+      </c>
+      <c r="F15" s="6"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A16" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="B16" s="5" t="s">
+      <c r="B16" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="C16" s="5" t="s">
+      <c r="C16" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="D16" s="5" t="s">
+      <c r="D16" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="E16" s="5">
+      <c r="E16" s="4">
         <v>15</v>
       </c>
-      <c r="F16" s="7"/>
+      <c r="F16" s="6"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A17" s="6" t="s">
+      <c r="A17" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="B17" s="5" t="s">
+      <c r="B17" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="C17" s="5" t="s">
+      <c r="C17" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="D17" s="5" t="s">
+      <c r="D17" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="E17" s="5">
+      <c r="E17" s="4">
         <v>20</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="F17" s="6" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A18" s="6" t="s">
+      <c r="A18" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="B18" s="5" t="s">
+      <c r="B18" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="C18" s="5" t="s">
+      <c r="C18" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="D18" s="5" t="s">
+      <c r="D18" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="E18" s="5">
+      <c r="E18" s="4">
         <v>15</v>
       </c>
-      <c r="F18" s="7"/>
+      <c r="F18" s="6"/>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A19" s="6" t="s">
+      <c r="A19" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="B19" s="5" t="s">
+      <c r="B19" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="C19" s="5" t="s">
+      <c r="C19" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="D19" s="5" t="s">
+      <c r="D19" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="E19" s="5">
-        <v>10</v>
-      </c>
-      <c r="F19" s="7"/>
+      <c r="E19" s="4">
+        <v>10</v>
+      </c>
+      <c r="F19" s="6"/>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A20" s="6" t="s">
+      <c r="A20" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="B20" s="5" t="s">
+      <c r="B20" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="C20" s="5" t="s">
+      <c r="C20" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="D20" s="5" t="s">
+      <c r="D20" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="E20" s="5">
+      <c r="E20" s="4">
         <v>15</v>
       </c>
-      <c r="F20" s="7" t="s">
+      <c r="F20" s="6" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A21" s="6" t="s">
+      <c r="A21" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="B21" s="5" t="s">
+      <c r="B21" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="C21" s="5" t="s">
+      <c r="C21" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="D21" s="5" t="s">
+      <c r="D21" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="E21" s="5">
-        <v>10</v>
-      </c>
-      <c r="F21" s="7"/>
+      <c r="E21" s="4">
+        <v>10</v>
+      </c>
+      <c r="F21" s="6"/>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A22" s="6" t="s">
+      <c r="A22" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="B22" s="5" t="s">
+      <c r="B22" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="C22" s="5" t="s">
+      <c r="C22" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="D22" s="5" t="s">
+      <c r="D22" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="E22" s="5">
-        <v>10</v>
-      </c>
-      <c r="F22" s="7" t="s">
+      <c r="E22" s="4">
+        <v>10</v>
+      </c>
+      <c r="F22" s="6" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A23" s="6" t="s">
+      <c r="A23" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="B23" s="5" t="s">
+      <c r="B23" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="C23" s="5" t="s">
+      <c r="C23" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="D23" s="5" t="s">
+      <c r="D23" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="E23" s="5">
+      <c r="E23" s="4">
         <v>15</v>
       </c>
-      <c r="F23" s="7" t="s">
+      <c r="F23" s="6" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A24" s="6" t="s">
+      <c r="A24" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="B24" s="5" t="s">
+      <c r="B24" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="C24" s="5" t="s">
+      <c r="C24" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="D24" s="5" t="s">
+      <c r="D24" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="E24" s="5">
-        <v>10</v>
-      </c>
-      <c r="F24" s="7"/>
+      <c r="E24" s="4">
+        <v>10</v>
+      </c>
+      <c r="F24" s="6"/>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A25" s="6" t="s">
+      <c r="A25" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="B25" s="5" t="s">
+      <c r="B25" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="C25" s="5" t="s">
+      <c r="C25" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="D25" s="5" t="s">
+      <c r="D25" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="E25" s="5">
-        <v>10</v>
-      </c>
-      <c r="F25" s="7" t="s">
+      <c r="E25" s="4">
+        <v>10</v>
+      </c>
+      <c r="F25" s="6" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A26" s="6" t="s">
+      <c r="A26" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="B26" s="5" t="s">
+      <c r="B26" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="C26" s="5" t="s">
+      <c r="C26" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="D26" s="5" t="s">
+      <c r="D26" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="E26" s="5">
-        <v>5</v>
-      </c>
-      <c r="F26" s="7" t="s">
+      <c r="E26" s="4">
+        <v>5</v>
+      </c>
+      <c r="F26" s="6" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A27" s="6" t="s">
+      <c r="A27" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="B27" s="5" t="s">
+      <c r="B27" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="C27" s="5" t="s">
+      <c r="C27" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="D27" s="5" t="s">
+      <c r="D27" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="E27" s="5">
-        <v>10</v>
-      </c>
-      <c r="F27" s="7" t="s">
+      <c r="E27" s="4">
+        <v>10</v>
+      </c>
+      <c r="F27" s="6" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A28" s="6" t="s">
+      <c r="A28" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="B28" s="5" t="s">
+      <c r="B28" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="C28" s="5" t="s">
+      <c r="C28" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="D28" s="5" t="s">
+      <c r="D28" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="E28" s="5">
-        <v>10</v>
-      </c>
-      <c r="F28" s="7"/>
+      <c r="E28" s="4">
+        <v>10</v>
+      </c>
+      <c r="F28" s="6"/>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A29" s="6" t="s">
+      <c r="A29" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="B29" s="5" t="s">
+      <c r="B29" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="C29" s="5" t="s">
+      <c r="C29" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="D29" s="5" t="s">
+      <c r="D29" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="E29" s="5">
-        <v>5</v>
-      </c>
-      <c r="F29" s="7" t="s">
+      <c r="E29" s="4">
+        <v>5</v>
+      </c>
+      <c r="F29" s="6" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A30" s="6" t="s">
+      <c r="A30" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="B30" s="5" t="s">
+      <c r="B30" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="C30" s="5" t="s">
+      <c r="C30" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="D30" s="5" t="s">
+      <c r="D30" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="E30" s="5">
-        <v>5</v>
-      </c>
-      <c r="F30" s="7" t="s">
+      <c r="E30" s="4">
+        <v>5</v>
+      </c>
+      <c r="F30" s="6" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A31" s="6" t="s">
+      <c r="A31" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="B31" s="5" t="s">
+      <c r="B31" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="C31" s="5" t="s">
+      <c r="C31" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="D31" s="5" t="s">
+      <c r="D31" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="E31" s="5">
-        <v>10</v>
-      </c>
-      <c r="F31" s="7" t="s">
+      <c r="E31" s="4">
+        <v>10</v>
+      </c>
+      <c r="F31" s="6" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A32" s="6" t="s">
+      <c r="A32" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="B32" s="5" t="s">
+      <c r="B32" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="C32" s="5" t="s">
+      <c r="C32" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="D32" s="5" t="s">
+      <c r="D32" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="E32" s="5">
+      <c r="E32" s="4">
         <v>15</v>
       </c>
-      <c r="F32" s="7"/>
+      <c r="F32" s="6"/>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A33" s="6" t="s">
+      <c r="A33" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="B33" s="5" t="s">
+      <c r="B33" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="C33" s="5" t="s">
+      <c r="C33" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="D33" s="5" t="s">
+      <c r="D33" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="E33" s="5">
-        <v>10</v>
-      </c>
-      <c r="F33" s="7"/>
+      <c r="E33" s="4">
+        <v>10</v>
+      </c>
+      <c r="F33" s="6"/>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A34" s="6" t="s">
+      <c r="A34" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="B34" s="5" t="s">
+      <c r="B34" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="C34" s="5" t="s">
+      <c r="C34" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="D34" s="5" t="s">
+      <c r="D34" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="E34" s="5">
+      <c r="E34" s="4">
         <v>15</v>
       </c>
-      <c r="F34" s="7"/>
+      <c r="F34" s="6"/>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A35" s="6" t="s">
+      <c r="A35" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="B35" s="5" t="s">
+      <c r="B35" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="C35" s="5" t="s">
+      <c r="C35" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="D35" s="5" t="s">
+      <c r="D35" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="E35" s="5">
+      <c r="E35" s="4">
         <v>20</v>
       </c>
-      <c r="F35" s="7"/>
+      <c r="F35" s="6"/>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A36" s="6" t="s">
+      <c r="A36" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="B36" s="5" t="s">
+      <c r="B36" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="C36" s="5" t="s">
+      <c r="C36" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="D36" s="5" t="s">
+      <c r="D36" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="E36" s="5">
+      <c r="E36" s="4">
         <v>15</v>
       </c>
-      <c r="F36" s="7"/>
+      <c r="F36" s="6"/>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A37" s="6" t="s">
+      <c r="A37" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="B37" s="5" t="s">
+      <c r="B37" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="C37" s="5" t="s">
+      <c r="C37" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="D37" s="5" t="s">
+      <c r="D37" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="E37" s="5">
+      <c r="E37" s="4">
         <v>15</v>
       </c>
-      <c r="F37" s="7"/>
+      <c r="F37" s="6"/>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A38" s="6" t="s">
+      <c r="A38" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="B38" s="5" t="s">
+      <c r="B38" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="C38" s="5" t="s">
+      <c r="C38" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="D38" s="5" t="s">
+      <c r="D38" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="E38" s="5">
-        <v>10</v>
-      </c>
-      <c r="F38" s="7"/>
+      <c r="E38" s="4">
+        <v>10</v>
+      </c>
+      <c r="F38" s="6"/>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A39" s="6" t="s">
+      <c r="A39" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="B39" s="5" t="s">
+      <c r="B39" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="C39" s="5" t="s">
+      <c r="C39" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="D39" s="5" t="s">
+      <c r="D39" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="E39" s="5">
-        <v>5</v>
-      </c>
-      <c r="F39" s="7" t="s">
+      <c r="E39" s="4">
+        <v>5</v>
+      </c>
+      <c r="F39" s="6" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A40" s="6" t="s">
+      <c r="A40" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="B40" s="5" t="s">
+      <c r="B40" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="C40" s="5" t="s">
+      <c r="C40" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="D40" s="5" t="s">
+      <c r="D40" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="E40" s="5">
-        <v>5</v>
-      </c>
-      <c r="F40" s="7"/>
+      <c r="E40" s="4">
+        <v>5</v>
+      </c>
+      <c r="F40" s="6"/>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A41" s="6" t="s">
+      <c r="A41" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="B41" s="5" t="s">
+      <c r="B41" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="C41" s="5" t="s">
+      <c r="C41" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="D41" s="5" t="s">
+      <c r="D41" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="E41" s="5">
-        <v>5</v>
-      </c>
-      <c r="F41" s="7"/>
+      <c r="E41" s="4">
+        <v>5</v>
+      </c>
+      <c r="F41" s="6"/>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A42" s="6" t="s">
+      <c r="A42" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="B42" s="5" t="s">
+      <c r="B42" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="C42" s="5" t="s">
+      <c r="C42" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="D42" s="5" t="s">
+      <c r="D42" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="E42" s="5">
-        <v>5</v>
-      </c>
-      <c r="F42" s="7" t="s">
+      <c r="E42" s="4">
+        <v>5</v>
+      </c>
+      <c r="F42" s="6" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A43" s="6" t="s">
+      <c r="A43" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="B43" s="5" t="s">
+      <c r="B43" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="C43" s="5" t="s">
+      <c r="C43" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="D43" s="5" t="s">
+      <c r="D43" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="E43" s="5">
-        <v>5</v>
-      </c>
-      <c r="F43" s="7"/>
+      <c r="E43" s="4">
+        <v>5</v>
+      </c>
+      <c r="F43" s="6"/>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A44" s="6" t="s">
+      <c r="A44" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="B44" s="5" t="s">
+      <c r="B44" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="C44" s="5" t="s">
+      <c r="C44" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="D44" s="5" t="s">
+      <c r="D44" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="E44" s="5">
+      <c r="E44" s="4">
         <v>20</v>
       </c>
-      <c r="F44" s="7"/>
+      <c r="F44" s="6"/>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A45" s="6" t="s">
+      <c r="A45" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="B45" s="5" t="s">
+      <c r="B45" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C45" s="5" t="s">
+      <c r="C45" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="D45" s="5" t="s">
+      <c r="D45" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="E45" s="5">
-        <v>10</v>
-      </c>
-      <c r="F45" s="7"/>
+      <c r="E45" s="4">
+        <v>10</v>
+      </c>
+      <c r="F45" s="6"/>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A46" s="6" t="s">
+      <c r="A46" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="B46" s="5" t="s">
+      <c r="B46" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="C46" s="5" t="s">
+      <c r="C46" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="D46" s="5" t="s">
+      <c r="D46" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="E46" s="5">
-        <v>10</v>
-      </c>
-      <c r="F46" s="7"/>
+      <c r="E46" s="4">
+        <v>10</v>
+      </c>
+      <c r="F46" s="6"/>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A47" s="6" t="s">
+      <c r="A47" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="B47" s="5" t="s">
+      <c r="B47" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="C47" s="5" t="s">
+      <c r="C47" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="D47" s="5" t="s">
+      <c r="D47" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="E47" s="5">
-        <v>5</v>
-      </c>
-      <c r="F47" s="7"/>
+      <c r="E47" s="4">
+        <v>5</v>
+      </c>
+      <c r="F47" s="6"/>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A48" s="6" t="s">
+      <c r="A48" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="B48" s="5" t="s">
+      <c r="B48" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="C48" s="5" t="s">
+      <c r="C48" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="D48" s="5" t="s">
+      <c r="D48" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="E48" s="5">
-        <v>5</v>
-      </c>
-      <c r="F48" s="7"/>
+      <c r="E48" s="4">
+        <v>5</v>
+      </c>
+      <c r="F48" s="6"/>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A49" s="6" t="s">
+      <c r="A49" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="B49" s="5" t="s">
+      <c r="B49" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="C49" s="5" t="s">
+      <c r="C49" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="D49" s="5" t="s">
+      <c r="D49" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="E49" s="5">
-        <v>10</v>
-      </c>
-      <c r="F49" s="7"/>
+      <c r="E49" s="4">
+        <v>10</v>
+      </c>
+      <c r="F49" s="6"/>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A50" s="6" t="s">
+      <c r="A50" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="B50" s="5" t="s">
+      <c r="B50" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="C50" s="5" t="s">
+      <c r="C50" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="D50" s="5" t="s">
+      <c r="D50" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="E50" s="5">
-        <v>10</v>
-      </c>
-      <c r="F50" s="7"/>
+      <c r="E50" s="4">
+        <v>10</v>
+      </c>
+      <c r="F50" s="6"/>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A51" s="6" t="s">
+      <c r="A51" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="B51" s="5" t="s">
+      <c r="B51" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="C51" s="5" t="s">
+      <c r="C51" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="D51" s="5" t="s">
+      <c r="D51" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="E51" s="5">
-        <v>10</v>
-      </c>
-      <c r="F51" s="7"/>
+      <c r="E51" s="4">
+        <v>10</v>
+      </c>
+      <c r="F51" s="6"/>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A52" s="6" t="s">
+      <c r="A52" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="B52" s="5" t="s">
+      <c r="B52" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="C52" s="5" t="s">
+      <c r="C52" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="D52" s="5" t="s">
+      <c r="D52" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="E52" s="5">
-        <v>10</v>
-      </c>
-      <c r="F52" s="7"/>
+      <c r="E52" s="4">
+        <v>10</v>
+      </c>
+      <c r="F52" s="6"/>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A53" s="6" t="s">
+      <c r="A53" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="B53" s="5" t="s">
+      <c r="B53" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="C53" s="5" t="s">
+      <c r="C53" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="D53" s="5" t="s">
+      <c r="D53" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="E53" s="5">
-        <v>10</v>
-      </c>
-      <c r="F53" s="7"/>
+      <c r="E53" s="4">
+        <v>10</v>
+      </c>
+      <c r="F53" s="6"/>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A54" s="6" t="s">
+      <c r="A54" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="B54" s="5" t="s">
+      <c r="B54" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="C54" s="5" t="s">
+      <c r="C54" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="D54" s="5" t="s">
+      <c r="D54" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="E54" s="5">
-        <v>5</v>
-      </c>
-      <c r="F54" s="7"/>
+      <c r="E54" s="4">
+        <v>5</v>
+      </c>
+      <c r="F54" s="6"/>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A55" s="11" t="s">
+      <c r="A55" s="10" t="s">
         <v>69</v>
       </c>
-      <c r="B55" s="12" t="s">
+      <c r="B55" s="11" t="s">
         <v>61</v>
       </c>
-      <c r="C55" s="12" t="s">
+      <c r="C55" s="11" t="s">
         <v>70</v>
       </c>
-      <c r="D55" s="12" t="s">
+      <c r="D55" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="E55" s="12">
-        <v>5</v>
-      </c>
-      <c r="F55" s="13"/>
+      <c r="E55" s="11">
+        <v>5</v>
+      </c>
+      <c r="F55" s="12"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/TODO.xlsx
+++ b/TODO.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ryrab\Desktop\Ryan\Etudes\S5\cloud\laravel-tier\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2F25CB9-93B1-4E76-8E30-91A34188D439}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B829B9D4-72FE-4E4D-94DA-BD9A0F99332C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{E4CD268D-3C6D-46DD-A075-3D4B794E010A}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="315" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="367" uniqueCount="87">
   <si>
     <t>Tâches</t>
   </si>
@@ -268,6 +268,39 @@
   </si>
   <si>
     <t>Étiquettes de colonnes</t>
+  </si>
+  <si>
+    <t>Analyse</t>
+  </si>
+  <si>
+    <t>feat-analyse</t>
+  </si>
+  <si>
+    <t>method:POST; endpoints :/analyse</t>
+  </si>
+  <si>
+    <t>Modification commission</t>
+  </si>
+  <si>
+    <t>feat-commission</t>
+  </si>
+  <si>
+    <t>method: POST; endpoints :/commission</t>
+  </si>
+  <si>
+    <t>Analyse commission</t>
+  </si>
+  <si>
+    <t>method: POST; endpoints :/analyse/commission</t>
+  </si>
+  <si>
+    <t>feat-comission</t>
+  </si>
+  <si>
+    <t>feat-alea-3</t>
+  </si>
+  <si>
+    <t>Alea - 3</t>
   </si>
 </sst>
 </file>
@@ -1473,8 +1506,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{8FFFC39C-6ECC-48EF-96BA-349189D9DB40}" name="Tableau1" displayName="Tableau1" ref="A1:F55" totalsRowShown="0" headerRowDxfId="9" headerRowBorderDxfId="8" tableBorderDxfId="7" totalsRowBorderDxfId="6">
-  <autoFilter ref="A1:F55" xr:uid="{8FFFC39C-6ECC-48EF-96BA-349189D9DB40}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{8FFFC39C-6ECC-48EF-96BA-349189D9DB40}" name="Tableau1" displayName="Tableau1" ref="A1:F67" totalsRowShown="0" headerRowDxfId="9" headerRowBorderDxfId="8" tableBorderDxfId="7" totalsRowBorderDxfId="6">
+  <autoFilter ref="A1:F67" xr:uid="{8FFFC39C-6ECC-48EF-96BA-349189D9DB40}"/>
   <tableColumns count="6">
     <tableColumn id="1" xr3:uid="{77C46521-18BA-4508-93F3-871C98C4923E}" name="Catégorie" dataDxfId="5"/>
     <tableColumn id="2" xr3:uid="{232E1D3F-8C88-4E11-8185-DC70D0013BC5}" name="Tâches" dataDxfId="4"/>
@@ -2698,10 +2731,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E2F81527-6F2B-4E48-A3FE-A8C288690935}">
-  <dimension ref="A1:G55"/>
+  <dimension ref="A1:G67"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10:G12"/>
+      <selection activeCell="D66" sqref="D66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2710,7 +2743,7 @@
     <col min="2" max="2" width="18.6640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="13.77734375" bestFit="1" customWidth="1"/>
     <col min="4" max="5" width="11.88671875" customWidth="1"/>
-    <col min="6" max="6" width="31.109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="39.77734375" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="13.77734375" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="29.21875" bestFit="1" customWidth="1"/>
   </cols>
@@ -3020,8 +3053,9 @@
         <v>15</v>
       </c>
       <c r="F16" s="6"/>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G16" s="13"/>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" s="5" t="s">
         <v>32</v>
       </c>
@@ -3040,8 +3074,9 @@
       <c r="F17" s="6" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G17" s="13"/>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" s="5" t="s">
         <v>32</v>
       </c>
@@ -3058,8 +3093,9 @@
         <v>15</v>
       </c>
       <c r="F18" s="6"/>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G18" s="13"/>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19" s="5" t="s">
         <v>37</v>
       </c>
@@ -3076,8 +3112,9 @@
         <v>10</v>
       </c>
       <c r="F19" s="6"/>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G19" s="13"/>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20" s="5" t="s">
         <v>37</v>
       </c>
@@ -3096,8 +3133,9 @@
       <c r="F20" s="6" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G20" s="13"/>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21" s="5" t="s">
         <v>37</v>
       </c>
@@ -3114,8 +3152,9 @@
         <v>10</v>
       </c>
       <c r="F21" s="6"/>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G21" s="13"/>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22" s="5" t="s">
         <v>38</v>
       </c>
@@ -3134,8 +3173,9 @@
       <c r="F22" s="6" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G22" s="13"/>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A23" s="5" t="s">
         <v>38</v>
       </c>
@@ -3154,8 +3194,9 @@
       <c r="F23" s="6" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G23" s="13"/>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A24" s="5" t="s">
         <v>38</v>
       </c>
@@ -3172,8 +3213,9 @@
         <v>10</v>
       </c>
       <c r="F24" s="6"/>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G24" s="13"/>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A25" s="5" t="s">
         <v>42</v>
       </c>
@@ -3193,7 +3235,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A26" s="5" t="s">
         <v>42</v>
       </c>
@@ -3213,7 +3255,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A27" s="5" t="s">
         <v>42</v>
       </c>
@@ -3233,7 +3275,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A28" s="5" t="s">
         <v>42</v>
       </c>
@@ -3251,7 +3293,7 @@
       </c>
       <c r="F28" s="6"/>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A29" s="5" t="s">
         <v>50</v>
       </c>
@@ -3271,7 +3313,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A30" s="5" t="s">
         <v>50</v>
       </c>
@@ -3291,7 +3333,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A31" s="5" t="s">
         <v>50</v>
       </c>
@@ -3311,7 +3353,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A32" s="5" t="s">
         <v>50</v>
       </c>
@@ -3746,6 +3788,230 @@
         <v>5</v>
       </c>
       <c r="F55" s="12"/>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A56" s="10" t="s">
+        <v>76</v>
+      </c>
+      <c r="B56" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="C56" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="D56" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="E56" s="11">
+        <v>10</v>
+      </c>
+      <c r="F56" s="12"/>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A57" s="10" t="s">
+        <v>76</v>
+      </c>
+      <c r="B57" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="C57" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="D57" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="E57" s="11">
+        <v>20</v>
+      </c>
+      <c r="F57" s="12" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A58" s="10" t="s">
+        <v>76</v>
+      </c>
+      <c r="B58" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="C58" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="D58" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="E58" s="11">
+        <v>15</v>
+      </c>
+      <c r="F58" s="12"/>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A59" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="B59" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="C59" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="D59" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="E59" s="11">
+        <v>10</v>
+      </c>
+      <c r="F59" s="12"/>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A60" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="B60" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="C60" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="D60" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="E60" s="11">
+        <v>5</v>
+      </c>
+      <c r="F60" s="12" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A61" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="B61" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="C61" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="D61" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="E61" s="11">
+        <v>10</v>
+      </c>
+      <c r="F61" s="12"/>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A62" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="B62" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="C62" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="D62" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="E62" s="11">
+        <v>10</v>
+      </c>
+      <c r="F62" s="6"/>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A63" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="B63" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="C63" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="D63" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="E63" s="11">
+        <v>30</v>
+      </c>
+      <c r="F63" s="12" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A64" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="B64" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="C64" s="11" t="s">
+        <v>84</v>
+      </c>
+      <c r="D64" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="E64" s="11">
+        <v>10</v>
+      </c>
+      <c r="F64" s="12"/>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A65" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="B65" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="C65" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="D65" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="E65" s="11">
+        <v>5</v>
+      </c>
+      <c r="F65" s="12"/>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A66" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="B66" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="C66" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="D66" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="E66" s="11">
+        <v>10</v>
+      </c>
+      <c r="F66" s="12" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A67" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="B67" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="C67" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="D67" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="E67" s="11">
+        <v>15</v>
+      </c>
+      <c r="F67" s="12"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/TODO.xlsx
+++ b/TODO.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ryrab\Desktop\Ryan\Etudes\S5\cloud\laravel-tier\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B829B9D4-72FE-4E4D-94DA-BD9A0F99332C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{479B6950-5136-436A-8EEC-75D0430F196C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{E4CD268D-3C6D-46DD-A075-3D4B794E010A}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="367" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="403" uniqueCount="100">
   <si>
     <t>Tâches</t>
   </si>
@@ -301,6 +301,45 @@
   </si>
   <si>
     <t>Alea - 3</t>
+  </si>
+  <si>
+    <t>Etat</t>
+  </si>
+  <si>
+    <t>Insertion requête dépôt</t>
+  </si>
+  <si>
+    <t>Insertion requête retrait</t>
+  </si>
+  <si>
+    <t>method:POST; endpoints: /depot</t>
+  </si>
+  <si>
+    <t>Liste requête base et firebase</t>
+  </si>
+  <si>
+    <t>feat-request</t>
+  </si>
+  <si>
+    <t>Insertion crypto prix firebase</t>
+  </si>
+  <si>
+    <t>feat-prix</t>
+  </si>
+  <si>
+    <t>Notification après opération</t>
+  </si>
+  <si>
+    <t>feat-notification</t>
+  </si>
+  <si>
+    <t>Historique</t>
+  </si>
+  <si>
+    <t>feat-historique</t>
+  </si>
+  <si>
+    <t>Utiliser imagekit,io pour avoir les images</t>
   </si>
 </sst>
 </file>
@@ -316,7 +355,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -326,6 +365,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -453,7 +498,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -471,12 +516,33 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="10">
+  <dxfs count="11">
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
     <dxf>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
@@ -1506,15 +1572,16 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{8FFFC39C-6ECC-48EF-96BA-349189D9DB40}" name="Tableau1" displayName="Tableau1" ref="A1:F67" totalsRowShown="0" headerRowDxfId="9" headerRowBorderDxfId="8" tableBorderDxfId="7" totalsRowBorderDxfId="6">
-  <autoFilter ref="A1:F67" xr:uid="{8FFFC39C-6ECC-48EF-96BA-349189D9DB40}"/>
-  <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{77C46521-18BA-4508-93F3-871C98C4923E}" name="Catégorie" dataDxfId="5"/>
-    <tableColumn id="2" xr3:uid="{232E1D3F-8C88-4E11-8185-DC70D0013BC5}" name="Tâches" dataDxfId="4"/>
-    <tableColumn id="3" xr3:uid="{D64991BF-E64E-456A-AB57-6E7CA3EC081F}" name="Git branche" dataDxfId="3"/>
-    <tableColumn id="4" xr3:uid="{785C0B9D-698B-4AE9-BA66-2A8E4FD59261}" name="Attribution" dataDxfId="2"/>
-    <tableColumn id="5" xr3:uid="{9C54D6DE-DB3C-487D-939D-1A82E50E156A}" name="Estimation" dataDxfId="1"/>
-    <tableColumn id="6" xr3:uid="{BE8DEBE4-2A95-46A2-9025-F29E50524203}" name="Remarque" dataDxfId="0"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{8FFFC39C-6ECC-48EF-96BA-349189D9DB40}" name="Tableau1" displayName="Tableau1" ref="A1:G75" totalsRowShown="0" headerRowDxfId="10" headerRowBorderDxfId="9" tableBorderDxfId="8" totalsRowBorderDxfId="7">
+  <autoFilter ref="A1:G75" xr:uid="{8FFFC39C-6ECC-48EF-96BA-349189D9DB40}"/>
+  <tableColumns count="7">
+    <tableColumn id="1" xr3:uid="{77C46521-18BA-4508-93F3-871C98C4923E}" name="Catégorie" dataDxfId="6"/>
+    <tableColumn id="2" xr3:uid="{232E1D3F-8C88-4E11-8185-DC70D0013BC5}" name="Tâches" dataDxfId="5"/>
+    <tableColumn id="3" xr3:uid="{D64991BF-E64E-456A-AB57-6E7CA3EC081F}" name="Git branche" dataDxfId="4"/>
+    <tableColumn id="4" xr3:uid="{785C0B9D-698B-4AE9-BA66-2A8E4FD59261}" name="Attribution" dataDxfId="3"/>
+    <tableColumn id="5" xr3:uid="{9C54D6DE-DB3C-487D-939D-1A82E50E156A}" name="Estimation" dataDxfId="2"/>
+    <tableColumn id="6" xr3:uid="{BE8DEBE4-2A95-46A2-9025-F29E50524203}" name="Remarque" dataDxfId="1"/>
+    <tableColumn id="7" xr3:uid="{BCBDB7A0-1940-4797-AEB0-642204C32FD0}" name="Etat" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2731,17 +2798,17 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E2F81527-6F2B-4E48-A3FE-A8C288690935}">
-  <dimension ref="A1:G67"/>
+  <dimension ref="A1:G75"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D66" sqref="D66"/>
+      <selection activeCell="F76" sqref="F76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="20.21875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="25.77734375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="18.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.77734375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.88671875" bestFit="1" customWidth="1"/>
     <col min="4" max="5" width="11.88671875" customWidth="1"/>
     <col min="6" max="6" width="39.77734375" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="13.77734375" bestFit="1" customWidth="1"/>
@@ -2767,6 +2834,9 @@
       <c r="F1" s="9" t="s">
         <v>23</v>
       </c>
+      <c r="G1" s="8" t="s">
+        <v>87</v>
+      </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
@@ -2783,7 +2853,7 @@
         <v>3</v>
       </c>
       <c r="F2" s="6"/>
-      <c r="G2" s="13"/>
+      <c r="G2" s="14"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
@@ -2941,6 +3011,7 @@
       <c r="F10" s="6" t="s">
         <v>26</v>
       </c>
+      <c r="G10" s="13"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" s="5" t="s">
@@ -2961,6 +3032,7 @@
       <c r="F11" s="6" t="s">
         <v>28</v>
       </c>
+      <c r="G11" s="13"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" s="5" t="s">
@@ -2979,6 +3051,7 @@
         <v>10</v>
       </c>
       <c r="F12" s="6"/>
+      <c r="G12" s="13"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" s="5" t="s">
@@ -2997,6 +3070,7 @@
         <v>15</v>
       </c>
       <c r="F13" s="6"/>
+      <c r="G13" s="13"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" s="5" t="s">
@@ -3017,6 +3091,7 @@
       <c r="F14" s="6" t="s">
         <v>31</v>
       </c>
+      <c r="G14" s="13"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" s="5" t="s">
@@ -3035,6 +3110,7 @@
         <v>10</v>
       </c>
       <c r="F15" s="6"/>
+      <c r="G15" s="13"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" s="5" t="s">
@@ -3131,7 +3207,7 @@
         <v>15</v>
       </c>
       <c r="F20" s="6" t="s">
-        <v>36</v>
+        <v>90</v>
       </c>
       <c r="G20" s="13"/>
     </row>
@@ -3234,6 +3310,7 @@
       <c r="F25" s="6" t="s">
         <v>49</v>
       </c>
+      <c r="G25" s="13"/>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A26" s="5" t="s">
@@ -3254,6 +3331,7 @@
       <c r="F26" s="6" t="s">
         <v>46</v>
       </c>
+      <c r="G26" s="13"/>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A27" s="5" t="s">
@@ -3274,6 +3352,7 @@
       <c r="F27" s="6" t="s">
         <v>48</v>
       </c>
+      <c r="G27" s="13"/>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A28" s="5" t="s">
@@ -3292,6 +3371,7 @@
         <v>10</v>
       </c>
       <c r="F28" s="6"/>
+      <c r="G28" s="13"/>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A29" s="5" t="s">
@@ -3312,6 +3392,7 @@
       <c r="F29" s="6" t="s">
         <v>62</v>
       </c>
+      <c r="G29" s="13"/>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A30" s="5" t="s">
@@ -3332,6 +3413,7 @@
       <c r="F30" s="6" t="s">
         <v>63</v>
       </c>
+      <c r="G30" s="13"/>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A31" s="5" t="s">
@@ -3352,6 +3434,7 @@
       <c r="F31" s="6" t="s">
         <v>64</v>
       </c>
+      <c r="G31" s="13"/>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A32" s="5" t="s">
@@ -3370,8 +3453,9 @@
         <v>15</v>
       </c>
       <c r="F32" s="6"/>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G32" s="13"/>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A33" s="5" t="s">
         <v>53</v>
       </c>
@@ -3388,8 +3472,9 @@
         <v>10</v>
       </c>
       <c r="F33" s="6"/>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G33" s="13"/>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A34" s="5" t="s">
         <v>53</v>
       </c>
@@ -3406,8 +3491,9 @@
         <v>15</v>
       </c>
       <c r="F34" s="6"/>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G34" s="13"/>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A35" s="5" t="s">
         <v>53</v>
       </c>
@@ -3424,8 +3510,9 @@
         <v>20</v>
       </c>
       <c r="F35" s="6"/>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G35" s="13"/>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A36" s="5" t="s">
         <v>53</v>
       </c>
@@ -3442,8 +3529,9 @@
         <v>15</v>
       </c>
       <c r="F36" s="6"/>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G36" s="13"/>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A37" s="5" t="s">
         <v>53</v>
       </c>
@@ -3460,8 +3548,9 @@
         <v>15</v>
       </c>
       <c r="F37" s="6"/>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G37" s="13"/>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A38" s="5" t="s">
         <v>59</v>
       </c>
@@ -3478,8 +3567,9 @@
         <v>10</v>
       </c>
       <c r="F38" s="6"/>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G38" s="13"/>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A39" s="5" t="s">
         <v>59</v>
       </c>
@@ -3498,8 +3588,9 @@
       <c r="F39" s="6" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G39" s="13"/>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A40" s="5" t="s">
         <v>59</v>
       </c>
@@ -3516,8 +3607,9 @@
         <v>5</v>
       </c>
       <c r="F40" s="6"/>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G40" s="13"/>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A41" s="5" t="s">
         <v>61</v>
       </c>
@@ -3534,8 +3626,9 @@
         <v>5</v>
       </c>
       <c r="F41" s="6"/>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G41" s="13"/>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A42" s="5" t="s">
         <v>61</v>
       </c>
@@ -3554,8 +3647,9 @@
       <c r="F42" s="6" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G42" s="13"/>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A43" s="5" t="s">
         <v>61</v>
       </c>
@@ -3572,8 +3666,9 @@
         <v>5</v>
       </c>
       <c r="F43" s="6"/>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G43" s="13"/>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A44" s="5" t="s">
         <v>68</v>
       </c>
@@ -3590,8 +3685,9 @@
         <v>20</v>
       </c>
       <c r="F44" s="6"/>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G44" s="13"/>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A45" s="5" t="s">
         <v>69</v>
       </c>
@@ -3608,8 +3704,9 @@
         <v>10</v>
       </c>
       <c r="F45" s="6"/>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G45" s="13"/>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A46" s="5" t="s">
         <v>69</v>
       </c>
@@ -3626,8 +3723,9 @@
         <v>10</v>
       </c>
       <c r="F46" s="6"/>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G46" s="13"/>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A47" s="5" t="s">
         <v>69</v>
       </c>
@@ -3644,8 +3742,9 @@
         <v>5</v>
       </c>
       <c r="F47" s="6"/>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G47" s="13"/>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A48" s="5" t="s">
         <v>69</v>
       </c>
@@ -3662,8 +3761,9 @@
         <v>5</v>
       </c>
       <c r="F48" s="6"/>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G48" s="13"/>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A49" s="5" t="s">
         <v>69</v>
       </c>
@@ -3680,8 +3780,9 @@
         <v>10</v>
       </c>
       <c r="F49" s="6"/>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G49" s="13"/>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A50" s="5" t="s">
         <v>69</v>
       </c>
@@ -3698,8 +3799,9 @@
         <v>10</v>
       </c>
       <c r="F50" s="6"/>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G50" s="13"/>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A51" s="5" t="s">
         <v>69</v>
       </c>
@@ -3716,8 +3818,9 @@
         <v>10</v>
       </c>
       <c r="F51" s="6"/>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G51" s="13"/>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A52" s="5" t="s">
         <v>69</v>
       </c>
@@ -3734,8 +3837,9 @@
         <v>10</v>
       </c>
       <c r="F52" s="6"/>
-    </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G52" s="13"/>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A53" s="5" t="s">
         <v>69</v>
       </c>
@@ -3752,8 +3856,9 @@
         <v>10</v>
       </c>
       <c r="F53" s="6"/>
-    </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G53" s="13"/>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A54" s="5" t="s">
         <v>69</v>
       </c>
@@ -3770,8 +3875,9 @@
         <v>5</v>
       </c>
       <c r="F54" s="6"/>
-    </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G54" s="13"/>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A55" s="10" t="s">
         <v>69</v>
       </c>
@@ -3788,8 +3894,9 @@
         <v>5</v>
       </c>
       <c r="F55" s="12"/>
-    </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G55" s="13"/>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A56" s="10" t="s">
         <v>76</v>
       </c>
@@ -3806,8 +3913,9 @@
         <v>10</v>
       </c>
       <c r="F56" s="12"/>
-    </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G56" s="13"/>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A57" s="10" t="s">
         <v>76</v>
       </c>
@@ -3826,8 +3934,9 @@
       <c r="F57" s="12" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G57" s="13"/>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A58" s="10" t="s">
         <v>76</v>
       </c>
@@ -3844,8 +3953,9 @@
         <v>15</v>
       </c>
       <c r="F58" s="12"/>
-    </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G58" s="13"/>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A59" s="10" t="s">
         <v>79</v>
       </c>
@@ -3862,8 +3972,9 @@
         <v>10</v>
       </c>
       <c r="F59" s="12"/>
-    </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G59" s="13"/>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A60" s="10" t="s">
         <v>79</v>
       </c>
@@ -3882,8 +3993,9 @@
       <c r="F60" s="12" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G60" s="13"/>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A61" s="10" t="s">
         <v>79</v>
       </c>
@@ -3900,8 +4012,9 @@
         <v>10</v>
       </c>
       <c r="F61" s="12"/>
-    </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G61" s="13"/>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A62" s="10" t="s">
         <v>82</v>
       </c>
@@ -3918,8 +4031,9 @@
         <v>10</v>
       </c>
       <c r="F62" s="6"/>
-    </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G62" s="13"/>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A63" s="10" t="s">
         <v>82</v>
       </c>
@@ -3938,8 +4052,9 @@
       <c r="F63" s="12" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G63" s="13"/>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A64" s="10" t="s">
         <v>82</v>
       </c>
@@ -3956,8 +4071,9 @@
         <v>10</v>
       </c>
       <c r="F64" s="12"/>
-    </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G64" s="13"/>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A65" s="10" t="s">
         <v>86</v>
       </c>
@@ -3974,8 +4090,9 @@
         <v>5</v>
       </c>
       <c r="F65" s="12"/>
-    </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G65" s="13"/>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A66" s="10" t="s">
         <v>86</v>
       </c>
@@ -3994,8 +4111,9 @@
       <c r="F66" s="12" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G66" s="13"/>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A67" s="10" t="s">
         <v>86</v>
       </c>
@@ -4012,6 +4130,165 @@
         <v>15</v>
       </c>
       <c r="F67" s="12"/>
+      <c r="G67" s="15"/>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A68" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="B68" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="C68" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="D68" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="E68" s="11">
+        <v>10</v>
+      </c>
+      <c r="F68" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="G68" s="15"/>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A69" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="B69" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="C69" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="D69" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="E69" s="11">
+        <v>10</v>
+      </c>
+      <c r="F69" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="G69" s="15"/>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A70" s="10" t="s">
+        <v>91</v>
+      </c>
+      <c r="B70" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="C70" s="11" t="s">
+        <v>92</v>
+      </c>
+      <c r="D70" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="E70" s="11">
+        <v>30</v>
+      </c>
+      <c r="F70" s="12"/>
+      <c r="G70" s="15"/>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A71" s="10" t="s">
+        <v>93</v>
+      </c>
+      <c r="B71" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="C71" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="D71" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="E71" s="11">
+        <v>20</v>
+      </c>
+      <c r="F71" s="12"/>
+      <c r="G71" s="15"/>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A72" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="B72" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C72" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="D72" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E72" s="4">
+        <v>25</v>
+      </c>
+      <c r="F72" s="6"/>
+      <c r="G72" s="13"/>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A73" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="B73" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C73" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="D73" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E73" s="4">
+        <v>30</v>
+      </c>
+      <c r="F73" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="G73" s="13"/>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A74" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="B74" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C74" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="D74" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="E74" s="4">
+        <v>20</v>
+      </c>
+      <c r="F74" s="6"/>
+      <c r="G74" s="13"/>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A75" s="10" t="s">
+        <v>95</v>
+      </c>
+      <c r="B75" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="C75" s="11" t="s">
+        <v>96</v>
+      </c>
+      <c r="D75" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="E75" s="11">
+        <v>50</v>
+      </c>
+      <c r="F75" s="12"/>
+      <c r="G75" s="16"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
